--- a/Manufactura/ReporteManufactura--Reporte--2022-07-07.xlsx.xlsx
+++ b/Manufactura/ReporteManufactura--Reporte--2022-07-07.xlsx.xlsx
@@ -1431,7 +1431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1447,7 +1447,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>2022-07-13</t>
+          <t>2022-07-27</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
@@ -1457,7 +1457,7 @@
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>2022-07-13</t>
+          <t>2022-07-27</t>
         </is>
       </c>
     </row>
@@ -1468,7 +1468,7 @@
         </is>
       </c>
       <c r="K2" t="n">
-        <v>123.5</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="3">
@@ -1478,7 +1478,7 @@
         </is>
       </c>
       <c r="K3" t="n">
-        <v>312</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4">
@@ -1501,15 +1501,20 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>Cantidad de Numeros de Parte</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>Horas de Manufactura Interna</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>FHO</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>9GURUEM</t>
         </is>
@@ -1531,18 +1536,16 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>606938</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
         <v>0.133333333</v>
       </c>
-      <c r="J6" t="n">
-        <v>123.366666667</v>
-      </c>
-      <c r="K6" s="38" t="n"/>
+      <c r="K6" t="n">
+        <v>28.366666667</v>
+      </c>
+      <c r="L6" s="38" t="n"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1550,7 +1553,7 @@
           <t>606938-WZ</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>X</t>
         </is>
@@ -1562,25 +1565,23 @@
           <t>TD127012000339</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>606939</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
+      <c r="A9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
         <v>0.162763889</v>
       </c>
-      <c r="J9" t="n">
-        <v>123.203902778</v>
-      </c>
-      <c r="K9" s="38" t="n"/>
+      <c r="K9" t="n">
+        <v>28.203902778</v>
+      </c>
+      <c r="L9" s="38" t="n"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1588,7 +1589,7 @@
           <t>606939-WZ</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>X</t>
         </is>
@@ -1600,25 +1601,23 @@
           <t>TD127012001815</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>606940</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
+      <c r="A12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
         <v>0.176663889</v>
       </c>
-      <c r="J12" t="n">
-        <v>123.027238889</v>
-      </c>
-      <c r="K12" s="38" t="n"/>
+      <c r="K12" t="n">
+        <v>28.027238889</v>
+      </c>
+      <c r="L12" s="38" t="n"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1626,25 +1625,23 @@
           <t>606940-Z</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>606940-CC</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
+      <c r="A14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
         <v>0.043330555</v>
       </c>
-      <c r="J14" t="n">
-        <v>122.983908334</v>
-      </c>
-      <c r="K14" s="38" t="n"/>
+      <c r="K14" t="n">
+        <v>27.983908334</v>
+      </c>
+      <c r="L14" s="38" t="n"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1652,25 +1649,23 @@
           <t>TD190516000927</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>606941</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
         <v>0.176663889</v>
       </c>
-      <c r="J16" t="n">
-        <v>122.807244445</v>
-      </c>
-      <c r="K16" s="38" t="n"/>
+      <c r="K16" t="n">
+        <v>27.807244445</v>
+      </c>
+      <c r="L16" s="38" t="n"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1678,25 +1673,23 @@
           <t>606941-Z</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>606941-CC</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
+      <c r="A18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="n">
         <v>0.043330555</v>
       </c>
-      <c r="J18" t="n">
-        <v>122.76391389</v>
-      </c>
-      <c r="K18" s="38" t="n"/>
+      <c r="K18" t="n">
+        <v>27.76391389</v>
+      </c>
+      <c r="L18" s="38" t="n"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1704,25 +1697,23 @@
           <t>TD254016001125</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>606943</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
+      <c r="A20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" t="n">
         <v>0.176663889</v>
       </c>
-      <c r="J20" t="n">
-        <v>122.587250001</v>
-      </c>
-      <c r="K20" s="38" t="n"/>
+      <c r="K20" t="n">
+        <v>27.587250001</v>
+      </c>
+      <c r="L20" s="38" t="n"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1730,7 +1721,7 @@
           <t>2033-12-12 ESP-Z</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>X</t>
         </is>
@@ -1742,25 +1733,23 @@
           <t>606943-Z</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>606943-CC</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
+      <c r="A23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" t="n">
         <v>0.043330555</v>
       </c>
-      <c r="J23" t="n">
-        <v>122.543919446</v>
-      </c>
-      <c r="K23" s="38" t="n"/>
+      <c r="K23" t="n">
+        <v>27.543919446</v>
+      </c>
+      <c r="L23" s="38" t="n"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1768,25 +1757,23 @@
           <t>TD190516000691</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>606944</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
+      <c r="A25" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" t="n">
         <v>0.176663889</v>
       </c>
-      <c r="J25" t="n">
-        <v>122.367255557</v>
-      </c>
-      <c r="K25" s="38" t="n"/>
+      <c r="K25" t="n">
+        <v>27.367255557</v>
+      </c>
+      <c r="L25" s="38" t="n"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1794,25 +1781,23 @@
           <t>606944-Z</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>606944-CC</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
+      <c r="A27" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" t="n">
         <v>0.043330555</v>
       </c>
-      <c r="J27" t="n">
-        <v>122.323925002</v>
-      </c>
-      <c r="K27" s="38" t="n"/>
+      <c r="K27" t="n">
+        <v>27.323925002</v>
+      </c>
+      <c r="L27" s="38" t="n"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1820,16 +1805,17 @@
           <t>TD190516000685</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="L29" s="38" t="n">
-        <v>48</v>
-      </c>
+      <c r="L29" t="n">
+        <v>-192</v>
+      </c>
+      <c r="M29" s="37" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
